--- a/API_cont/Dummy.xlsx
+++ b/API_cont/Dummy.xlsx
@@ -16,37 +16,65 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>First_Name</t>
-  </si>
-  <si>
-    <t>Last_Name</t>
-  </si>
-  <si>
-    <t>Madan</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Rohan</t>
   </si>
   <si>
+    <t>Sharma</t>
+  </si>
+  <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>rohanSharmaxx@gmail.com</t>
+  </si>
+  <si>
     <t>Mohan</t>
   </si>
   <si>
-    <t>Sharma</t>
+    <t>Kumar</t>
+  </si>
+  <si>
+    <t>mohankumarlalxx@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -66,13 +94,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -365,39 +399,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E13" activeCellId="1" sqref="B15 E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
